--- a/Log/subjective-feedback.xlsx
+++ b/Log/subjective-feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5940" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>performance</t>
   </si>
@@ -124,6 +124,42 @@
   </si>
   <si>
     <t>huyuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liguohao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liguohao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiweinan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiweinan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shijiaxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shijiaxin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,6 +1158,489 @@
       </c>
       <c r="G29">
         <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1133,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,6 +1734,48 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>2016310644</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2016211008</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>2016310610</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Log/subjective-feedback.xlsx
+++ b/Log/subjective-feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8730" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="43">
   <si>
     <t>performance</t>
   </si>
@@ -160,6 +160,34 @@
   </si>
   <si>
     <t>shijiaxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiexiaohui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiawu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiawu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangzhican</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1641,6 +1669,489 @@
       </c>
       <c r="G50">
         <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1652,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1776,6 +2287,48 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>2016310577</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>2016210943</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>2013011377</v>
+      </c>
+      <c r="D11">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Log/subjective-feedback.xlsx
+++ b/Log/subjective-feedback.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9660" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="44">
   <si>
     <t>performance</t>
   </si>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhanyulong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2152,6 +2156,167 @@
       </c>
       <c r="G71">
         <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>6</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2329,6 +2494,11 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
